--- a/nr-publish-ballot-2/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/nr-publish-ballot-2/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="410">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T08:22:20+00:00</t>
+    <t>2026-01-28T13:01:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,8 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This profile specializes the fr-core-organization profile to represent wards inside healthcare institutions.
-Ce profil spécialise le profil fr-core-organization pour représenter les unités fonctionnelles en établissement</t>
+    <t>Profil de la ressource Organization permettant de représenter les unités fonctionnelles en établissement.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -115,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Organization|4.0.1</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -466,9 +465,6 @@
     <t>fr-canonical</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-uf|2.2.0-ballot-2</t>
-  </si>
-  <si>
     <t>Organization.meta.security</t>
   </si>
   <si>
@@ -641,9 +637,7 @@
     <t>FR Core Organization Short Name Extension</t>
   </si>
   <si>
-    <t>Libellé court de l'organisation
--The Organization short name</t>
+    <t>Libellé court de l'organisation</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -656,172 +650,14 @@
     <t>description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-description|2.2.0-ballot-2}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Organization.description}
 </t>
   </si>
   <si>
-    <t>FR Core Organization Description Extension</t>
-  </si>
-  <si>
-    <t>Description textuelle d'une organisation
-Organization description</t>
-  </si>
-  <si>
-    <t>Organization.extension:budgetLetter</t>
-  </si>
-  <si>
-    <t>budgetLetter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-budget-letter|2.2.0-ballot-2}
-</t>
-  </si>
-  <si>
-    <t>FR Core Organization Budget Letter Extension</t>
-  </si>
-  <si>
-    <t>Lettre budgétaire de l'UF
-An organization budget letter</t>
-  </si>
-  <si>
-    <t>Organization.extension:equipmentField</t>
-  </si>
-  <si>
-    <t>equipmentField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-field|2.2.0-ballot-2}
-</t>
-  </si>
-  <si>
-    <t>FR Core Organization Field Extension</t>
-  </si>
-  <si>
-    <t>Discipline d'équipement
--Equipment field</t>
-  </si>
-  <si>
-    <t>Organization.extension:activityField</t>
-  </si>
-  <si>
-    <t>activityField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-activity-field|2.2.0-ballot-2}
-</t>
-  </si>
-  <si>
-    <t>FR Core Organization Activity Field Extension</t>
-  </si>
-  <si>
-    <t>Champ d'activité d'une UF.
-Activity field of an organization</t>
-  </si>
-  <si>
-    <t>Organization.extension:external</t>
-  </si>
-  <si>
-    <t>external</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-external|2.2.0-ballot-2}
-</t>
-  </si>
-  <si>
-    <t>FR Core Organization External Extension</t>
-  </si>
-  <si>
-    <t>UF externe à l'établissement.
--External ward of the facility</t>
-  </si>
-  <si>
-    <t>Organization.extension:accomodationSpace</t>
-  </si>
-  <si>
-    <t>accomodationSpace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-number-of-theorical-accomadation-space|2.2.0-ballot-2}
-</t>
-  </si>
-  <si>
-    <t>FR Core Organization Total Number Of Theorical Accomodation Space Extension</t>
-  </si>
-  <si>
-    <t>Nombre total de places d'hébergement théoriques
--Total number of theorical accomodation space</t>
-  </si>
-  <si>
-    <t>Organization.extension:applicantAct</t>
-  </si>
-  <si>
-    <t>applicantAct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-applicant-act|2.2.0-ballot-2}
-</t>
-  </si>
-  <si>
-    <t>FR Core Organization Applicant Act Extension</t>
-  </si>
-  <si>
-    <t>UF demandeuse d'actes
-An organization that asks soma acts</t>
-  </si>
-  <si>
-    <t>Organization.extension:executantAct</t>
-  </si>
-  <si>
-    <t>executantAct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-executant|2.2.0-ballot-2}
-</t>
-  </si>
-  <si>
-    <t>FR Core Organization Executant Extension</t>
-  </si>
-  <si>
-    <t>Une UF exécutante d'actes
--An executant act organization</t>
-  </si>
-  <si>
-    <t>Organization.extension:analysisSection</t>
-  </si>
-  <si>
-    <t>analysisSection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-analysis-section|2.2.0-ballot-2}
-</t>
-  </si>
-  <si>
-    <t>FR Core Organization Analysis Section Extension</t>
-  </si>
-  <si>
-    <t>Section d'analyse d'une UF.
-An oraganization analysis section</t>
-  </si>
-  <si>
-    <t>Organization.extension:activityType</t>
-  </si>
-  <si>
-    <t>activityType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-activity-type|2.2.0-ballot-2}
-</t>
-  </si>
-  <si>
-    <t>FR Core Organization Activity Type Extension</t>
-  </si>
-  <si>
-    <t>Type d'activité d'une UF
-An organization activity type</t>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>Organization.extension:usePeriod</t>
@@ -837,6 +673,172 @@
     <t>The date range that this organization should be considered available.</t>
   </si>
   <si>
+    <t>Organization.extension:openReason</t>
+  </si>
+  <si>
+    <t>openReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {note|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Additional notes that apply to this resource or element.</t>
+  </si>
+  <si>
+    <t>This extension SHALL NOT be used if the resource already has standard 'note' element (or equivalent) of type Annotation on the same element</t>
+  </si>
+  <si>
+    <t>Organization.extension:closureReason</t>
+  </si>
+  <si>
+    <t>closureReason</t>
+  </si>
+  <si>
+    <t>Organization.extension:members</t>
+  </si>
+  <si>
+    <t>members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-member|2.2.0-ballot-2}
+</t>
+  </si>
+  <si>
+    <t>FR Core Organization Extension - Membre d'organisation</t>
+  </si>
+  <si>
+    <t>Extension permettant de définir des membres d'une organisation.</t>
+  </si>
+  <si>
+    <t>Organization.extension:discplineEquipement</t>
+  </si>
+  <si>
+    <t>discplineEquipement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-discipline-equipement|2.2.0-ballot-2}
+</t>
+  </si>
+  <si>
+    <t>FR Core Organization Extension - Discipline d'équipement</t>
+  </si>
+  <si>
+    <t>Discipline d'équipement</t>
+  </si>
+  <si>
+    <t>Organization.extension:typeActivite</t>
+  </si>
+  <si>
+    <t>typeActivite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-type-activite|2.2.0-ballot-2}
+</t>
+  </si>
+  <si>
+    <t>FR Core Organization Extension - Type d'activité</t>
+  </si>
+  <si>
+    <t>Type d'activité d'une UF</t>
+  </si>
+  <si>
+    <t>Organization.extension:champActivite</t>
+  </si>
+  <si>
+    <t>champActivite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-champ-activite|2.2.0-ballot-2}
+</t>
+  </si>
+  <si>
+    <t>FR Core Organization Extension - Champ d'activité</t>
+  </si>
+  <si>
+    <t>Champ d'activité d'une UF</t>
+  </si>
+  <si>
+    <t>Organization.extension:placeHebergement</t>
+  </si>
+  <si>
+    <t>placeHebergement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-place-hebergement-theorique|2.2.0-ballot-2}
+</t>
+  </si>
+  <si>
+    <t>FR Core Organization Extension - Nombre total de places d'hébergement théoriques</t>
+  </si>
+  <si>
+    <t>Nombre total de places d'hébergement théoriques</t>
+  </si>
+  <si>
+    <t>Organization.extension:externe</t>
+  </si>
+  <si>
+    <t>externe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-uf-externe|2.2.0-ballot-2}
+</t>
+  </si>
+  <si>
+    <t>FR Core Organization Extension - UF Externe</t>
+  </si>
+  <si>
+    <t>Indicateur permettant de définir si une UF est externe à l'établissement</t>
+  </si>
+  <si>
+    <t>Organization.extension:indicateur</t>
+  </si>
+  <si>
+    <t>indicateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-uf-indicateur|2.2.0-ballot-2}
+</t>
+  </si>
+  <si>
+    <t>FR Core Organization Extension - Indicateur d'une unité fonctionnelle</t>
+  </si>
+  <si>
+    <t>Indicateur permettant de définir si une UF est d'hébergement, médicale, administrative ou de magasin.</t>
+  </si>
+  <si>
+    <t>Organization.extension:demandeuseActe</t>
+  </si>
+  <si>
+    <t>demandeuseActe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-demandeuse-acte|2.2.0-ballot-2}
+</t>
+  </si>
+  <si>
+    <t>FR Core Organization Extension - Demandeuse d'acte</t>
+  </si>
+  <si>
+    <t>Indicateur permettant de définir si une UF peut demander des actes</t>
+  </si>
+  <si>
+    <t>Organization.extension:executanteActe</t>
+  </si>
+  <si>
+    <t>executanteActe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-executante-acte|2.2.0-ballot-2}
+</t>
+  </si>
+  <si>
+    <t>FR Core Organization Extension - Exécutante d'acte</t>
+  </si>
+  <si>
+    <t>Indicateur permettant de définir si une UF peut exécuter des actes</t>
+  </si>
+  <si>
     <t>Organization.modifierExtension</t>
   </si>
   <si>
@@ -885,213 +887,46 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>Organization.identifier.id</t>
-  </si>
-  <si>
-    <t>Organization.identifier.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Organization.identifier.type</t>
+    <t>Organization.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Whether the organization's record is still in active use</t>
+  </si>
+  <si>
+    <t>Whether the organization's record is still in active use.</t>
+  </si>
+  <si>
+    <t>This active flag is not intended to be used to mark an organization as temporarily closed or under construction. Instead the Location(s) within the Organization should have the suspended status. If further details of the reason for the suspension are required, then an extension on this element should be used.
+This element is labeled as a modifier because it may be used to mark that the resource was created in error.</t>
+  </si>
+  <si>
+    <t>Need a flag to indicate a record is no longer to be used and should generally be hidden for the user in the UI.</t>
+  </si>
+  <si>
+    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>No equivalent in HL7 v2</t>
+  </si>
+  <si>
+    <t>.status</t>
+  </si>
+  <si>
+    <t>./Status (however this concept in ServD more covers why the organization is active or not, could be delisted, deregistered, not operational yet) this could alternatively be derived from ./StartDate and ./EndDate and given a context date.</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Organization.type</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-identifier-type|2.2.0-ballot-2</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Organization.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>./IdentifierType</t>
-  </si>
-  <si>
-    <t>Organization.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>./Value</t>
-  </si>
-  <si>
-    <t>Organization.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
-  </si>
-  <si>
-    <t>Organization.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>./IdentifierIssuingAuthority</t>
-  </si>
-  <si>
-    <t>Organization.active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Whether the organization's record is still in active use</t>
-  </si>
-  <si>
-    <t>Whether the organization's record is still in active use.</t>
-  </si>
-  <si>
-    <t>This active flag is not intended to be used to mark an organization as temporarily closed or under construction. Instead the Location(s) within the Organization should have the suspended status. If further details of the reason for the suspension are required, then an extension on this element should be used.
-This element is labeled as a modifier because it may be used to mark that the resource was created in error.</t>
-  </si>
-  <si>
-    <t>Need a flag to indicate a record is no longer to be used and should generally be hidden for the user in the UI.</t>
-  </si>
-  <si>
-    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
-  </si>
-  <si>
-    <t>No equivalent in HL7 v2</t>
-  </si>
-  <si>
-    <t>.status</t>
-  </si>
-  <si>
-    <t>./Status (however this concept in ServD more covers why the organization is active or not, could be delisted, deregistered, not operational yet) this could alternatively be derived from ./StartDate and ./EndDate and given a context date.</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Organization.type</t>
   </si>
   <si>
     <t>Kind of organization</t>
@@ -1108,6 +943,14 @@
     <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://hl7.fr/ig/fhir/core/CodeSystem/fr-core-cs-v2-3307"/&gt;
+    &lt;code value="UF"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type|2.2.0-ballot-2</t>
   </si>
   <si>
@@ -1163,7 +1006,7 @@
     <t>Organization.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -1199,7 +1042,7 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -1235,7 +1078,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot-2)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot-2|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-etablissement|2.2.0-ballot-2)
 </t>
   </si>
   <si>
@@ -1249,6 +1092,83 @@
   </si>
   <si>
     <t>.playedBy[classCode=Part].scoper</t>
+  </si>
+  <si>
+    <t>Organization.partOf.id</t>
+  </si>
+  <si>
+    <t>Organization.partOf.extension</t>
+  </si>
+  <si>
+    <t>Organization.partOf.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>Organization.partOf.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>Organization.partOf.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>Organization.partOf.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
   </si>
   <si>
     <t>Organization.contact</t>
@@ -1710,9 +1630,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.59765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.09765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.80078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="17.34765625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -1720,7 +1640,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="105.73828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="145.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1729,13 +1649,13 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -1746,7 +1666,7 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="43.6953125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="187.0625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
@@ -2943,7 +2863,7 @@
         <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>78</v>
@@ -3011,10 +2931,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3037,16 +2957,16 @@
         <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3072,31 +2992,31 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="Z12" t="s" s="2">
+      <c r="AA12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3125,10 +3045,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3151,16 +3071,16 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3186,31 +3106,31 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AA13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3239,10 +3159,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3268,13 +3188,13 @@
         <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3324,7 +3244,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3353,10 +3273,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3379,16 +3299,16 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3414,31 +3334,31 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3467,14 +3387,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3493,16 +3413,16 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3552,7 +3472,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3570,7 +3490,7 @@
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3581,14 +3501,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3607,16 +3527,16 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3666,7 +3586,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3684,7 +3604,7 @@
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -3695,10 +3615,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3724,10 +3644,10 @@
         <v>109</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3776,7 +3696,7 @@
         <v>115</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3805,13 +3725,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C19" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>78</v>
@@ -3833,13 +3753,13 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3890,7 +3810,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3899,7 +3819,7 @@
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>117</v>
@@ -3919,13 +3839,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C20" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>78</v>
@@ -3947,13 +3867,13 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4004,7 +3924,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4013,7 +3933,7 @@
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>117</v>
@@ -4022,7 +3942,7 @@
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
@@ -4033,13 +3953,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C21" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>78</v>
@@ -4061,13 +3981,13 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4118,7 +4038,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4127,7 +4047,7 @@
         <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>117</v>
@@ -4147,13 +4067,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>78</v>
@@ -4163,7 +4083,7 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
@@ -4175,15 +4095,17 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4232,7 +4154,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4241,7 +4163,7 @@
         <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>117</v>
@@ -4261,13 +4183,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>78</v>
@@ -4289,15 +4211,17 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4346,7 +4270,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4355,7 +4279,7 @@
         <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>117</v>
@@ -4375,13 +4299,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>78</v>
@@ -4403,13 +4327,13 @@
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4460,7 +4384,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4469,7 +4393,7 @@
         <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>117</v>
@@ -4489,13 +4413,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>78</v>
@@ -4517,13 +4441,13 @@
         <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4574,7 +4498,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4583,7 +4507,7 @@
         <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>117</v>
@@ -4603,13 +4527,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>78</v>
@@ -4631,13 +4555,13 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4688,7 +4612,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4697,7 +4621,7 @@
         <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>117</v>
@@ -4717,13 +4641,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>78</v>
@@ -4745,13 +4669,13 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4802,7 +4726,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4811,7 +4735,7 @@
         <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>117</v>
@@ -4831,13 +4755,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>78</v>
@@ -4859,13 +4783,13 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4916,7 +4840,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4925,7 +4849,7 @@
         <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>117</v>
@@ -4945,13 +4869,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>78</v>
@@ -4973,13 +4897,13 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5030,7 +4954,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5039,7 +4963,7 @@
         <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>117</v>
@@ -5059,13 +4983,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>78</v>
@@ -5075,7 +4999,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -5087,13 +5011,13 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5144,7 +5068,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5173,46 +5097,44 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="D31" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>109</v>
+        <v>255</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>78</v>
       </c>
@@ -5260,7 +5182,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5278,7 +5200,7 @@
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
@@ -5289,12 +5211,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>78</v>
       </c>
@@ -5303,7 +5227,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -5312,21 +5236,19 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>266</v>
-      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
       </c>
@@ -5374,7 +5296,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>262</v>
+        <v>195</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5383,62 +5305,66 @@
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>268</v>
+        <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>269</v>
+        <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>271</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>103</v>
+        <v>264</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
       </c>
@@ -5486,25 +5412,25 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>106</v>
+        <v>191</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5515,14 +5441,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5538,21 +5464,21 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>109</v>
+        <v>269</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5588,19 +5514,19 @@
         <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>116</v>
+        <v>268</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5609,30 +5535,30 @@
         <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>78</v>
+        <v>274</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>106</v>
+        <v>275</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>78</v>
+        <v>276</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>78</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5655,66 +5581,70 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>169</v>
+        <v>279</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="O35" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="P35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q35" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="P35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="Y35" s="2"/>
-      <c r="Z35" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5729,24 +5659,24 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>192</v>
+        <v>285</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>78</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5754,10 +5684,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -5769,26 +5699,26 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>78</v>
+        <v>295</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>78</v>
@@ -5806,35 +5736,35 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AA36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
@@ -5843,24 +5773,24 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>78</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5868,7 +5798,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>88</v>
@@ -5883,19 +5813,19 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -5908,7 +5838,7 @@
         <v>78</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>297</v>
+        <v>78</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>78</v>
@@ -5944,7 +5874,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5953,19 +5883,19 @@
         <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -5973,10 +5903,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5984,10 +5914,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -5996,21 +5926,23 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>102</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
       </c>
@@ -6022,7 +5954,7 @@
         <v>78</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>306</v>
+        <v>78</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>78</v>
@@ -6058,13 +5990,13 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
@@ -6073,13 +6005,13 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>308</v>
+        <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>310</v>
+        <v>78</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6087,10 +6019,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6101,7 +6033,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -6110,19 +6042,23 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6170,28 +6106,28 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>78</v>
+        <v>319</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6199,10 +6135,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6213,7 +6149,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -6222,21 +6158,23 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
       </c>
@@ -6290,22 +6228,22 @@
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>331</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
@@ -6313,10 +6251,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6333,32 +6271,28 @@
         <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q41" t="s" s="2">
-        <v>334</v>
-      </c>
+      <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
         <v>78</v>
       </c>
@@ -6402,7 +6336,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6417,24 +6351,24 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>337</v>
+        <v>106</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>338</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6445,7 +6379,7 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -6454,23 +6388,19 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>284</v>
+        <v>102</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>340</v>
+        <v>103</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6494,11 +6424,13 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="Y42" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z42" t="s" s="2">
-        <v>344</v>
+        <v>78</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
@@ -6516,50 +6448,50 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>339</v>
+        <v>105</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>345</v>
+        <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>346</v>
+        <v>106</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>347</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6568,23 +6500,21 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>349</v>
+        <v>110</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>350</v>
+        <v>111</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
       </c>
@@ -6620,40 +6550,40 @@
         <v>78</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>348</v>
+        <v>116</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>353</v>
+        <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>354</v>
+        <v>106</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>355</v>
+        <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -6661,10 +6591,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6675,7 +6605,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -6684,23 +6614,21 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>102</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
       </c>
@@ -6748,16 +6676,16 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>78</v>
+        <v>348</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>100</v>
@@ -6766,7 +6694,7 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>354</v>
+        <v>191</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6777,10 +6705,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6791,7 +6719,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -6800,23 +6728,21 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>362</v>
+        <v>130</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
       </c>
@@ -6840,13 +6766,11 @@
         <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>78</v>
+        <v>296</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
@@ -6864,28 +6788,28 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>367</v>
+        <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>368</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>369</v>
+        <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>370</v>
+        <v>191</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>371</v>
+        <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -6893,10 +6817,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6907,7 +6831,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -6916,23 +6840,21 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>373</v>
+        <v>269</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
       </c>
@@ -6980,28 +6902,28 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>378</v>
+        <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>379</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>380</v>
+        <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>382</v>
+        <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7009,10 +6931,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7035,18 +6957,18 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>384</v>
+        <v>102</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7094,7 +7016,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7109,13 +7031,13 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>335</v>
+        <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>388</v>
+        <v>191</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7123,10 +7045,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7149,19 +7071,19 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7210,7 +7132,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7228,7 +7150,7 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7239,10 +7161,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7351,10 +7273,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7465,14 +7387,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7494,16 +7416,16 @@
         <v>109</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>112</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -7552,7 +7474,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7570,7 +7492,7 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7581,10 +7503,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7607,17 +7529,17 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -7642,13 +7564,13 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
@@ -7666,7 +7588,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7684,7 +7606,7 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -7695,10 +7617,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7721,17 +7643,17 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -7780,7 +7702,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -7795,10 +7717,10 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
@@ -7809,10 +7731,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7835,17 +7757,17 @@
         <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>362</v>
+        <v>314</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -7894,7 +7816,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -7909,10 +7831,10 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -7923,10 +7845,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7949,17 +7871,17 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>373</v>
+        <v>325</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8008,7 +7930,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8023,10 +7945,10 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
@@ -8037,10 +7959,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8063,17 +7985,17 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8122,7 +8044,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
